--- a/data/download_SH512890.xlsx
+++ b/data/download_SH512890.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1445"/>
+  <dimension ref="A1:F1460"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35109,7 +35109,7 @@
         </is>
       </c>
       <c r="C1445" t="n">
-        <v>1.116</v>
+        <v>1.101</v>
       </c>
       <c r="D1445" t="n">
         <v>1.121</v>
@@ -35118,7 +35118,367 @@
         <v>1.129</v>
       </c>
       <c r="F1445" t="n">
-        <v>1.111</v>
+        <v>1.091</v>
+      </c>
+    </row>
+    <row r="1446">
+      <c r="A1446" t="inlineStr">
+        <is>
+          <t>20250103</t>
+        </is>
+      </c>
+      <c r="B1446" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1446" t="n">
+        <v>1.086</v>
+      </c>
+      <c r="D1446" t="n">
+        <v>1.101</v>
+      </c>
+      <c r="E1446" t="n">
+        <v>1.105</v>
+      </c>
+      <c r="F1446" t="n">
+        <v>1.082</v>
+      </c>
+    </row>
+    <row r="1447">
+      <c r="A1447" t="inlineStr">
+        <is>
+          <t>20250106</t>
+        </is>
+      </c>
+      <c r="B1447" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1447" t="n">
+        <v>1.087</v>
+      </c>
+      <c r="D1447" t="n">
+        <v>1.085</v>
+      </c>
+      <c r="E1447" t="n">
+        <v>1.088</v>
+      </c>
+      <c r="F1447" t="n">
+        <v>1.074</v>
+      </c>
+    </row>
+    <row r="1448">
+      <c r="A1448" t="inlineStr">
+        <is>
+          <t>20250107</t>
+        </is>
+      </c>
+      <c r="B1448" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1448" t="n">
+        <v>1.091</v>
+      </c>
+      <c r="D1448" t="n">
+        <v>1.087</v>
+      </c>
+      <c r="E1448" t="n">
+        <v>1.091</v>
+      </c>
+      <c r="F1448" t="n">
+        <v>1.078</v>
+      </c>
+    </row>
+    <row r="1449">
+      <c r="A1449" t="inlineStr">
+        <is>
+          <t>20250108</t>
+        </is>
+      </c>
+      <c r="B1449" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1449" t="n">
+        <v>1.095</v>
+      </c>
+      <c r="D1449" t="n">
+        <v>1.087</v>
+      </c>
+      <c r="E1449" t="n">
+        <v>1.098</v>
+      </c>
+      <c r="F1449" t="n">
+        <v>1.081</v>
+      </c>
+    </row>
+    <row r="1450">
+      <c r="A1450" t="inlineStr">
+        <is>
+          <t>20250109</t>
+        </is>
+      </c>
+      <c r="B1450" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1450" t="n">
+        <v>1.084</v>
+      </c>
+      <c r="D1450" t="n">
+        <v>1.093</v>
+      </c>
+      <c r="E1450" t="n">
+        <v>1.093</v>
+      </c>
+      <c r="F1450" t="n">
+        <v>1.081</v>
+      </c>
+    </row>
+    <row r="1451">
+      <c r="A1451" t="inlineStr">
+        <is>
+          <t>20250110</t>
+        </is>
+      </c>
+      <c r="B1451" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1451" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="D1451" t="n">
+        <v>1.081</v>
+      </c>
+      <c r="E1451" t="n">
+        <v>1.085</v>
+      </c>
+      <c r="F1451" t="n">
+        <v>1.069</v>
+      </c>
+    </row>
+    <row r="1452">
+      <c r="A1452" t="inlineStr">
+        <is>
+          <t>20250113</t>
+        </is>
+      </c>
+      <c r="B1452" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1452" t="n">
+        <v>1.058</v>
+      </c>
+      <c r="D1452" t="n">
+        <v>1.067</v>
+      </c>
+      <c r="E1452" t="n">
+        <v>1.069</v>
+      </c>
+      <c r="F1452" t="n">
+        <v>1.053</v>
+      </c>
+    </row>
+    <row r="1453">
+      <c r="A1453" t="inlineStr">
+        <is>
+          <t>20250114</t>
+        </is>
+      </c>
+      <c r="B1453" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1453" t="n">
+        <v>1.074</v>
+      </c>
+      <c r="D1453" t="n">
+        <v>1.061</v>
+      </c>
+      <c r="E1453" t="n">
+        <v>1.077</v>
+      </c>
+      <c r="F1453" t="n">
+        <v>1.059</v>
+      </c>
+    </row>
+    <row r="1454">
+      <c r="A1454" t="inlineStr">
+        <is>
+          <t>20250115</t>
+        </is>
+      </c>
+      <c r="B1454" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1454" t="n">
+        <v>1.078</v>
+      </c>
+      <c r="D1454" t="n">
+        <v>1.073</v>
+      </c>
+      <c r="E1454" t="n">
+        <v>1.088</v>
+      </c>
+      <c r="F1454" t="n">
+        <v>1.072</v>
+      </c>
+    </row>
+    <row r="1455">
+      <c r="A1455" t="inlineStr">
+        <is>
+          <t>20250116</t>
+        </is>
+      </c>
+      <c r="B1455" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1455" t="n">
+        <v>1.087</v>
+      </c>
+      <c r="D1455" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="E1455" t="n">
+        <v>1.088</v>
+      </c>
+      <c r="F1455" t="n">
+        <v>1.078</v>
+      </c>
+    </row>
+    <row r="1456">
+      <c r="A1456" t="inlineStr">
+        <is>
+          <t>20250117</t>
+        </is>
+      </c>
+      <c r="B1456" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1456" t="n">
+        <v>1.084</v>
+      </c>
+      <c r="D1456" t="n">
+        <v>1.086</v>
+      </c>
+      <c r="E1456" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F1456" t="n">
+        <v>1.079</v>
+      </c>
+    </row>
+    <row r="1457">
+      <c r="A1457" t="inlineStr">
+        <is>
+          <t>20250120</t>
+        </is>
+      </c>
+      <c r="B1457" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1457" t="n">
+        <v>1.085</v>
+      </c>
+      <c r="D1457" t="n">
+        <v>1.088</v>
+      </c>
+      <c r="E1457" t="n">
+        <v>1.093</v>
+      </c>
+      <c r="F1457" t="n">
+        <v>1.082</v>
+      </c>
+    </row>
+    <row r="1458">
+      <c r="A1458" t="inlineStr">
+        <is>
+          <t>20250121</t>
+        </is>
+      </c>
+      <c r="B1458" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1458" t="n">
+        <v>1.076</v>
+      </c>
+      <c r="D1458" t="n">
+        <v>1.088</v>
+      </c>
+      <c r="E1458" t="n">
+        <v>1.089</v>
+      </c>
+      <c r="F1458" t="n">
+        <v>1.074</v>
+      </c>
+    </row>
+    <row r="1459">
+      <c r="A1459" t="inlineStr">
+        <is>
+          <t>20250122</t>
+        </is>
+      </c>
+      <c r="B1459" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1459" t="n">
+        <v>1.061</v>
+      </c>
+      <c r="D1459" t="n">
+        <v>1.076</v>
+      </c>
+      <c r="E1459" t="n">
+        <v>1.076</v>
+      </c>
+      <c r="F1459" t="n">
+        <v>1.058</v>
+      </c>
+    </row>
+    <row r="1460">
+      <c r="A1460" t="inlineStr">
+        <is>
+          <t>20250123</t>
+        </is>
+      </c>
+      <c r="B1460" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1460" t="n">
+        <v>1.078</v>
+      </c>
+      <c r="D1460" t="n">
+        <v>1.069</v>
+      </c>
+      <c r="E1460" t="n">
+        <v>1.082</v>
+      </c>
+      <c r="F1460" t="n">
+        <v>1.069</v>
       </c>
     </row>
   </sheetData>

--- a/data/download_SH512890.xlsx
+++ b/data/download_SH512890.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1460"/>
+  <dimension ref="A1:F1475"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35481,6 +35481,366 @@
         <v>1.069</v>
       </c>
     </row>
+    <row r="1461">
+      <c r="A1461" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="B1461" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1461" t="n">
+        <v>1.082</v>
+      </c>
+      <c r="D1461" t="n">
+        <v>1.078</v>
+      </c>
+      <c r="E1461" t="n">
+        <v>1.086</v>
+      </c>
+      <c r="F1461" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="1462">
+      <c r="A1462" t="inlineStr">
+        <is>
+          <t>20250127</t>
+        </is>
+      </c>
+      <c r="B1462" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1462" t="n">
+        <v>1.097</v>
+      </c>
+      <c r="D1462" t="n">
+        <v>1.085</v>
+      </c>
+      <c r="E1462" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F1462" t="n">
+        <v>1.084</v>
+      </c>
+    </row>
+    <row r="1463">
+      <c r="A1463" t="inlineStr">
+        <is>
+          <t>20250205</t>
+        </is>
+      </c>
+      <c r="B1463" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1463" t="n">
+        <v>1.077</v>
+      </c>
+      <c r="D1463" t="n">
+        <v>1.098</v>
+      </c>
+      <c r="E1463" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F1463" t="n">
+        <v>1.075</v>
+      </c>
+    </row>
+    <row r="1464">
+      <c r="A1464" t="inlineStr">
+        <is>
+          <t>20250206</t>
+        </is>
+      </c>
+      <c r="B1464" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1464" t="n">
+        <v>1.078</v>
+      </c>
+      <c r="D1464" t="n">
+        <v>1.077</v>
+      </c>
+      <c r="E1464" t="n">
+        <v>1.082</v>
+      </c>
+      <c r="F1464" t="n">
+        <v>1.071</v>
+      </c>
+    </row>
+    <row r="1465">
+      <c r="A1465" t="inlineStr">
+        <is>
+          <t>20250207</t>
+        </is>
+      </c>
+      <c r="B1465" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1465" t="n">
+        <v>1.079</v>
+      </c>
+      <c r="D1465" t="n">
+        <v>1.076</v>
+      </c>
+      <c r="E1465" t="n">
+        <v>1.083</v>
+      </c>
+      <c r="F1465" t="n">
+        <v>1.072</v>
+      </c>
+    </row>
+    <row r="1466">
+      <c r="A1466" t="inlineStr">
+        <is>
+          <t>20250210</t>
+        </is>
+      </c>
+      <c r="B1466" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1466" t="n">
+        <v>1.079</v>
+      </c>
+      <c r="D1466" t="n">
+        <v>1.078</v>
+      </c>
+      <c r="E1466" t="n">
+        <v>1.081</v>
+      </c>
+      <c r="F1466" t="n">
+        <v>1.075</v>
+      </c>
+    </row>
+    <row r="1467">
+      <c r="A1467" t="inlineStr">
+        <is>
+          <t>20250211</t>
+        </is>
+      </c>
+      <c r="B1467" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1467" t="n">
+        <v>1.089</v>
+      </c>
+      <c r="D1467" t="n">
+        <v>1.078</v>
+      </c>
+      <c r="E1467" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F1467" t="n">
+        <v>1.078</v>
+      </c>
+    </row>
+    <row r="1468">
+      <c r="A1468" t="inlineStr">
+        <is>
+          <t>20250212</t>
+        </is>
+      </c>
+      <c r="B1468" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1468" t="n">
+        <v>1.091</v>
+      </c>
+      <c r="D1468" t="n">
+        <v>1.088</v>
+      </c>
+      <c r="E1468" t="n">
+        <v>1.092</v>
+      </c>
+      <c r="F1468" t="n">
+        <v>1.084</v>
+      </c>
+    </row>
+    <row r="1469">
+      <c r="A1469" t="inlineStr">
+        <is>
+          <t>20250213</t>
+        </is>
+      </c>
+      <c r="B1469" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1469" t="n">
+        <v>1.094</v>
+      </c>
+      <c r="D1469" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="E1469" t="n">
+        <v>1.098</v>
+      </c>
+      <c r="F1469" t="n">
+        <v>1.088</v>
+      </c>
+    </row>
+    <row r="1470">
+      <c r="A1470" t="inlineStr">
+        <is>
+          <t>20250214</t>
+        </is>
+      </c>
+      <c r="B1470" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1470" t="n">
+        <v>1.094</v>
+      </c>
+      <c r="D1470" t="n">
+        <v>1.091</v>
+      </c>
+      <c r="E1470" t="n">
+        <v>1.095</v>
+      </c>
+      <c r="F1470" t="n">
+        <v>1.086</v>
+      </c>
+    </row>
+    <row r="1471">
+      <c r="A1471" t="inlineStr">
+        <is>
+          <t>20250217</t>
+        </is>
+      </c>
+      <c r="B1471" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1471" t="n">
+        <v>1.093</v>
+      </c>
+      <c r="D1471" t="n">
+        <v>1.094</v>
+      </c>
+      <c r="E1471" t="n">
+        <v>1.095</v>
+      </c>
+      <c r="F1471" t="n">
+        <v>1.086</v>
+      </c>
+    </row>
+    <row r="1472">
+      <c r="A1472" t="inlineStr">
+        <is>
+          <t>20250218</t>
+        </is>
+      </c>
+      <c r="B1472" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1472" t="n">
+        <v>1.095</v>
+      </c>
+      <c r="D1472" t="n">
+        <v>1.092</v>
+      </c>
+      <c r="E1472" t="n">
+        <v>1.103</v>
+      </c>
+      <c r="F1472" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="1473">
+      <c r="A1473" t="inlineStr">
+        <is>
+          <t>20250219</t>
+        </is>
+      </c>
+      <c r="B1473" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1473" t="n">
+        <v>1.094</v>
+      </c>
+      <c r="D1473" t="n">
+        <v>1.093</v>
+      </c>
+      <c r="E1473" t="n">
+        <v>1.094</v>
+      </c>
+      <c r="F1473" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="1474">
+      <c r="A1474" t="inlineStr">
+        <is>
+          <t>20250220</t>
+        </is>
+      </c>
+      <c r="B1474" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1474" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="D1474" t="n">
+        <v>1.091</v>
+      </c>
+      <c r="E1474" t="n">
+        <v>1.092</v>
+      </c>
+      <c r="F1474" t="n">
+        <v>1.087</v>
+      </c>
+    </row>
+    <row r="1475">
+      <c r="A1475" t="inlineStr">
+        <is>
+          <t>20250221</t>
+        </is>
+      </c>
+      <c r="B1475" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1475" t="n">
+        <v>1.082</v>
+      </c>
+      <c r="D1475" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="E1475" t="n">
+        <v>1.092</v>
+      </c>
+      <c r="F1475" t="n">
+        <v>1.078</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SH512890.xlsx
+++ b/data/download_SH512890.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1475"/>
+  <dimension ref="A1:F1476"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35841,6 +35841,30 @@
         <v>1.078</v>
       </c>
     </row>
+    <row r="1476">
+      <c r="A1476" t="inlineStr">
+        <is>
+          <t>20250224</t>
+        </is>
+      </c>
+      <c r="B1476" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1476" t="n">
+        <v>1.079</v>
+      </c>
+      <c r="D1476" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="E1476" t="n">
+        <v>1.084</v>
+      </c>
+      <c r="F1476" t="n">
+        <v>1.076</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SH512890.xlsx
+++ b/data/download_SH512890.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1476"/>
+  <dimension ref="A1:F1480"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35865,6 +35865,102 @@
         <v>1.076</v>
       </c>
     </row>
+    <row r="1477">
+      <c r="A1477" t="inlineStr">
+        <is>
+          <t>20250225</t>
+        </is>
+      </c>
+      <c r="B1477" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1477" t="n">
+        <v>1.071</v>
+      </c>
+      <c r="D1477" t="n">
+        <v>1.078</v>
+      </c>
+      <c r="E1477" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F1477" t="n">
+        <v>1.069</v>
+      </c>
+    </row>
+    <row r="1478">
+      <c r="A1478" t="inlineStr">
+        <is>
+          <t>20250226</t>
+        </is>
+      </c>
+      <c r="B1478" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1478" t="n">
+        <v>1.079</v>
+      </c>
+      <c r="D1478" t="n">
+        <v>1.072</v>
+      </c>
+      <c r="E1478" t="n">
+        <v>1.081</v>
+      </c>
+      <c r="F1478" t="n">
+        <v>1.072</v>
+      </c>
+    </row>
+    <row r="1479">
+      <c r="A1479" t="inlineStr">
+        <is>
+          <t>20250227</t>
+        </is>
+      </c>
+      <c r="B1479" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1479" t="n">
+        <v>1.089</v>
+      </c>
+      <c r="D1479" t="n">
+        <v>1.079</v>
+      </c>
+      <c r="E1479" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F1479" t="n">
+        <v>1.075</v>
+      </c>
+    </row>
+    <row r="1480">
+      <c r="A1480" t="inlineStr">
+        <is>
+          <t>20250228</t>
+        </is>
+      </c>
+      <c r="B1480" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1480" t="n">
+        <v>1.084</v>
+      </c>
+      <c r="D1480" t="n">
+        <v>1.088</v>
+      </c>
+      <c r="E1480" t="n">
+        <v>1.091</v>
+      </c>
+      <c r="F1480" t="n">
+        <v>1.083</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SH512890.xlsx
+++ b/data/download_SH512890.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1480"/>
+  <dimension ref="A1:F1481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35958,7 +35958,31 @@
         <v>1.091</v>
       </c>
       <c r="F1480" t="n">
-        <v>1.083</v>
+        <v>1.082</v>
+      </c>
+    </row>
+    <row r="1481">
+      <c r="A1481" t="inlineStr">
+        <is>
+          <t>20250303</t>
+        </is>
+      </c>
+      <c r="B1481" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1481" t="n">
+        <v>1.084</v>
+      </c>
+      <c r="D1481" t="n">
+        <v>1.084</v>
+      </c>
+      <c r="E1481" t="n">
+        <v>1.088</v>
+      </c>
+      <c r="F1481" t="n">
+        <v>1.08</v>
       </c>
     </row>
   </sheetData>

--- a/data/download_SH512890.xlsx
+++ b/data/download_SH512890.xlsx
@@ -35973,7 +35973,7 @@
         </is>
       </c>
       <c r="C1481" t="n">
-        <v>1.084</v>
+        <v>1.083</v>
       </c>
       <c r="D1481" t="n">
         <v>1.084</v>

--- a/data/download_SH512890.xlsx
+++ b/data/download_SH512890.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1481"/>
+  <dimension ref="A1:F1517"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35985,6 +35985,870 @@
         <v>1.08</v>
       </c>
     </row>
+    <row r="1482">
+      <c r="A1482" t="inlineStr">
+        <is>
+          <t>20250304</t>
+        </is>
+      </c>
+      <c r="B1482" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1482" t="n">
+        <v>1.084</v>
+      </c>
+      <c r="D1482" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="E1482" t="n">
+        <v>1.085</v>
+      </c>
+      <c r="F1482" t="n">
+        <v>1.079</v>
+      </c>
+    </row>
+    <row r="1483">
+      <c r="A1483" t="inlineStr">
+        <is>
+          <t>20250305</t>
+        </is>
+      </c>
+      <c r="B1483" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1483" t="n">
+        <v>1.091</v>
+      </c>
+      <c r="D1483" t="n">
+        <v>1.084</v>
+      </c>
+      <c r="E1483" t="n">
+        <v>1.091</v>
+      </c>
+      <c r="F1483" t="n">
+        <v>1.081</v>
+      </c>
+    </row>
+    <row r="1484">
+      <c r="A1484" t="inlineStr">
+        <is>
+          <t>20250306</t>
+        </is>
+      </c>
+      <c r="B1484" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1484" t="n">
+        <v>1.087</v>
+      </c>
+      <c r="D1484" t="n">
+        <v>1.091</v>
+      </c>
+      <c r="E1484" t="n">
+        <v>1.093</v>
+      </c>
+      <c r="F1484" t="n">
+        <v>1.083</v>
+      </c>
+    </row>
+    <row r="1485">
+      <c r="A1485" t="inlineStr">
+        <is>
+          <t>20250307</t>
+        </is>
+      </c>
+      <c r="B1485" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1485" t="n">
+        <v>1.085</v>
+      </c>
+      <c r="D1485" t="n">
+        <v>1.085</v>
+      </c>
+      <c r="E1485" t="n">
+        <v>1.089</v>
+      </c>
+      <c r="F1485" t="n">
+        <v>1.083</v>
+      </c>
+    </row>
+    <row r="1486">
+      <c r="A1486" t="inlineStr">
+        <is>
+          <t>20250310</t>
+        </is>
+      </c>
+      <c r="B1486" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1486" t="n">
+        <v>1.079</v>
+      </c>
+      <c r="D1486" t="n">
+        <v>1.085</v>
+      </c>
+      <c r="E1486" t="n">
+        <v>1.085</v>
+      </c>
+      <c r="F1486" t="n">
+        <v>1.076</v>
+      </c>
+    </row>
+    <row r="1487">
+      <c r="A1487" t="inlineStr">
+        <is>
+          <t>20250311</t>
+        </is>
+      </c>
+      <c r="B1487" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1487" t="n">
+        <v>1.084</v>
+      </c>
+      <c r="D1487" t="n">
+        <v>1.076</v>
+      </c>
+      <c r="E1487" t="n">
+        <v>1.085</v>
+      </c>
+      <c r="F1487" t="n">
+        <v>1.073</v>
+      </c>
+    </row>
+    <row r="1488">
+      <c r="A1488" t="inlineStr">
+        <is>
+          <t>20250312</t>
+        </is>
+      </c>
+      <c r="B1488" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1488" t="n">
+        <v>1.086</v>
+      </c>
+      <c r="D1488" t="n">
+        <v>1.084</v>
+      </c>
+      <c r="E1488" t="n">
+        <v>1.088</v>
+      </c>
+      <c r="F1488" t="n">
+        <v>1.082</v>
+      </c>
+    </row>
+    <row r="1489">
+      <c r="A1489" t="inlineStr">
+        <is>
+          <t>20250313</t>
+        </is>
+      </c>
+      <c r="B1489" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1489" t="n">
+        <v>1.091</v>
+      </c>
+      <c r="D1489" t="n">
+        <v>1.085</v>
+      </c>
+      <c r="E1489" t="n">
+        <v>1.093</v>
+      </c>
+      <c r="F1489" t="n">
+        <v>1.084</v>
+      </c>
+    </row>
+    <row r="1490">
+      <c r="A1490" t="inlineStr">
+        <is>
+          <t>20250314</t>
+        </is>
+      </c>
+      <c r="B1490" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1490" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="D1490" t="n">
+        <v>1.091</v>
+      </c>
+      <c r="E1490" t="n">
+        <v>1.101</v>
+      </c>
+      <c r="F1490" t="n">
+        <v>1.091</v>
+      </c>
+    </row>
+    <row r="1491">
+      <c r="A1491" t="inlineStr">
+        <is>
+          <t>20250317</t>
+        </is>
+      </c>
+      <c r="B1491" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1491" t="n">
+        <v>1.104</v>
+      </c>
+      <c r="D1491" t="n">
+        <v>1.102</v>
+      </c>
+      <c r="E1491" t="n">
+        <v>1.106</v>
+      </c>
+      <c r="F1491" t="n">
+        <v>1.099</v>
+      </c>
+    </row>
+    <row r="1492">
+      <c r="A1492" t="inlineStr">
+        <is>
+          <t>20250318</t>
+        </is>
+      </c>
+      <c r="B1492" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1492" t="n">
+        <v>1.102</v>
+      </c>
+      <c r="D1492" t="n">
+        <v>1.105</v>
+      </c>
+      <c r="E1492" t="n">
+        <v>1.105</v>
+      </c>
+      <c r="F1492" t="n">
+        <v>1.099</v>
+      </c>
+    </row>
+    <row r="1493">
+      <c r="A1493" t="inlineStr">
+        <is>
+          <t>20250319</t>
+        </is>
+      </c>
+      <c r="B1493" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1493" t="n">
+        <v>1.108</v>
+      </c>
+      <c r="D1493" t="n">
+        <v>1.102</v>
+      </c>
+      <c r="E1493" t="n">
+        <v>1.109</v>
+      </c>
+      <c r="F1493" t="n">
+        <v>1.099</v>
+      </c>
+    </row>
+    <row r="1494">
+      <c r="A1494" t="inlineStr">
+        <is>
+          <t>20250320</t>
+        </is>
+      </c>
+      <c r="B1494" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1494" t="n">
+        <v>1.105</v>
+      </c>
+      <c r="D1494" t="n">
+        <v>1.109</v>
+      </c>
+      <c r="E1494" t="n">
+        <v>1.112</v>
+      </c>
+      <c r="F1494" t="n">
+        <v>1.102</v>
+      </c>
+    </row>
+    <row r="1495">
+      <c r="A1495" t="inlineStr">
+        <is>
+          <t>20250321</t>
+        </is>
+      </c>
+      <c r="B1495" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1495" t="n">
+        <v>1.103</v>
+      </c>
+      <c r="D1495" t="n">
+        <v>1.103</v>
+      </c>
+      <c r="E1495" t="n">
+        <v>1.112</v>
+      </c>
+      <c r="F1495" t="n">
+        <v>1.096</v>
+      </c>
+    </row>
+    <row r="1496">
+      <c r="A1496" t="inlineStr">
+        <is>
+          <t>20250324</t>
+        </is>
+      </c>
+      <c r="B1496" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1496" t="n">
+        <v>1.108</v>
+      </c>
+      <c r="D1496" t="n">
+        <v>1.101</v>
+      </c>
+      <c r="E1496" t="n">
+        <v>1.109</v>
+      </c>
+      <c r="F1496" t="n">
+        <v>1.101</v>
+      </c>
+    </row>
+    <row r="1497">
+      <c r="A1497" t="inlineStr">
+        <is>
+          <t>20250325</t>
+        </is>
+      </c>
+      <c r="B1497" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1497" t="n">
+        <v>1.115</v>
+      </c>
+      <c r="D1497" t="n">
+        <v>1.109</v>
+      </c>
+      <c r="E1497" t="n">
+        <v>1.116</v>
+      </c>
+      <c r="F1497" t="n">
+        <v>1.107</v>
+      </c>
+    </row>
+    <row r="1498">
+      <c r="A1498" t="inlineStr">
+        <is>
+          <t>20250326</t>
+        </is>
+      </c>
+      <c r="B1498" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1498" t="n">
+        <v>1.112</v>
+      </c>
+      <c r="D1498" t="n">
+        <v>1.114</v>
+      </c>
+      <c r="E1498" t="n">
+        <v>1.116</v>
+      </c>
+      <c r="F1498" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="1499">
+      <c r="A1499" t="inlineStr">
+        <is>
+          <t>20250327</t>
+        </is>
+      </c>
+      <c r="B1499" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1499" t="n">
+        <v>1.115</v>
+      </c>
+      <c r="D1499" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="E1499" t="n">
+        <v>1.118</v>
+      </c>
+      <c r="F1499" t="n">
+        <v>1.111</v>
+      </c>
+    </row>
+    <row r="1500">
+      <c r="A1500" t="inlineStr">
+        <is>
+          <t>20250328</t>
+        </is>
+      </c>
+      <c r="B1500" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1500" t="n">
+        <v>1.112</v>
+      </c>
+      <c r="D1500" t="n">
+        <v>1.115</v>
+      </c>
+      <c r="E1500" t="n">
+        <v>1.115</v>
+      </c>
+      <c r="F1500" t="n">
+        <v>1.108</v>
+      </c>
+    </row>
+    <row r="1501">
+      <c r="A1501" t="inlineStr">
+        <is>
+          <t>20250331</t>
+        </is>
+      </c>
+      <c r="B1501" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1501" t="n">
+        <v>1.112</v>
+      </c>
+      <c r="D1501" t="n">
+        <v>1.112</v>
+      </c>
+      <c r="E1501" t="n">
+        <v>1.121</v>
+      </c>
+      <c r="F1501" t="n">
+        <v>1.108</v>
+      </c>
+    </row>
+    <row r="1502">
+      <c r="A1502" t="inlineStr">
+        <is>
+          <t>20250401</t>
+        </is>
+      </c>
+      <c r="B1502" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1502" t="n">
+        <v>1.115</v>
+      </c>
+      <c r="D1502" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="E1502" t="n">
+        <v>1.116</v>
+      </c>
+      <c r="F1502" t="n">
+        <v>1.108</v>
+      </c>
+    </row>
+    <row r="1503">
+      <c r="A1503" t="inlineStr">
+        <is>
+          <t>20250402</t>
+        </is>
+      </c>
+      <c r="B1503" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1503" t="n">
+        <v>1.121</v>
+      </c>
+      <c r="D1503" t="n">
+        <v>1.114</v>
+      </c>
+      <c r="E1503" t="n">
+        <v>1.124</v>
+      </c>
+      <c r="F1503" t="n">
+        <v>1.113</v>
+      </c>
+    </row>
+    <row r="1504">
+      <c r="A1504" t="inlineStr">
+        <is>
+          <t>20250403</t>
+        </is>
+      </c>
+      <c r="B1504" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1504" t="n">
+        <v>1.125</v>
+      </c>
+      <c r="D1504" t="n">
+        <v>1.118</v>
+      </c>
+      <c r="E1504" t="n">
+        <v>1.126</v>
+      </c>
+      <c r="F1504" t="n">
+        <v>1.115</v>
+      </c>
+    </row>
+    <row r="1505">
+      <c r="A1505" t="inlineStr">
+        <is>
+          <t>20250407</t>
+        </is>
+      </c>
+      <c r="B1505" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1505" t="n">
+        <v>1.064</v>
+      </c>
+      <c r="D1505" t="n">
+        <v>1.107</v>
+      </c>
+      <c r="E1505" t="n">
+        <v>1.107</v>
+      </c>
+      <c r="F1505" t="n">
+        <v>1.042</v>
+      </c>
+    </row>
+    <row r="1506">
+      <c r="A1506" t="inlineStr">
+        <is>
+          <t>20250408</t>
+        </is>
+      </c>
+      <c r="B1506" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1506" t="n">
+        <v>1.088</v>
+      </c>
+      <c r="D1506" t="n">
+        <v>1.065</v>
+      </c>
+      <c r="E1506" t="n">
+        <v>1.089</v>
+      </c>
+      <c r="F1506" t="n">
+        <v>1.064</v>
+      </c>
+    </row>
+    <row r="1507">
+      <c r="A1507" t="inlineStr">
+        <is>
+          <t>20250409</t>
+        </is>
+      </c>
+      <c r="B1507" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1507" t="n">
+        <v>1.085</v>
+      </c>
+      <c r="D1507" t="n">
+        <v>1.076</v>
+      </c>
+      <c r="E1507" t="n">
+        <v>1.086</v>
+      </c>
+      <c r="F1507" t="n">
+        <v>1.064</v>
+      </c>
+    </row>
+    <row r="1508">
+      <c r="A1508" t="inlineStr">
+        <is>
+          <t>20250410</t>
+        </is>
+      </c>
+      <c r="B1508" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1508" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="D1508" t="n">
+        <v>1.088</v>
+      </c>
+      <c r="E1508" t="n">
+        <v>1.095</v>
+      </c>
+      <c r="F1508" t="n">
+        <v>1.082</v>
+      </c>
+    </row>
+    <row r="1509">
+      <c r="A1509" t="inlineStr">
+        <is>
+          <t>20250411</t>
+        </is>
+      </c>
+      <c r="B1509" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1509" t="n">
+        <v>1.087</v>
+      </c>
+      <c r="D1509" t="n">
+        <v>1.087</v>
+      </c>
+      <c r="E1509" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F1509" t="n">
+        <v>1.082</v>
+      </c>
+    </row>
+    <row r="1510">
+      <c r="A1510" t="inlineStr">
+        <is>
+          <t>20250414</t>
+        </is>
+      </c>
+      <c r="B1510" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1510" t="n">
+        <v>1.095</v>
+      </c>
+      <c r="D1510" t="n">
+        <v>1.089</v>
+      </c>
+      <c r="E1510" t="n">
+        <v>1.096</v>
+      </c>
+      <c r="F1510" t="n">
+        <v>1.085</v>
+      </c>
+    </row>
+    <row r="1511">
+      <c r="A1511" t="inlineStr">
+        <is>
+          <t>20250415</t>
+        </is>
+      </c>
+      <c r="B1511" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1511" t="n">
+        <v>1.106</v>
+      </c>
+      <c r="D1511" t="n">
+        <v>1.095</v>
+      </c>
+      <c r="E1511" t="n">
+        <v>1.107</v>
+      </c>
+      <c r="F1511" t="n">
+        <v>1.093</v>
+      </c>
+    </row>
+    <row r="1512">
+      <c r="A1512" t="inlineStr">
+        <is>
+          <t>20250416</t>
+        </is>
+      </c>
+      <c r="B1512" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1512" t="n">
+        <v>1.116</v>
+      </c>
+      <c r="D1512" t="n">
+        <v>1.104</v>
+      </c>
+      <c r="E1512" t="n">
+        <v>1.117</v>
+      </c>
+      <c r="F1512" t="n">
+        <v>1.104</v>
+      </c>
+    </row>
+    <row r="1513">
+      <c r="A1513" t="inlineStr">
+        <is>
+          <t>20250417</t>
+        </is>
+      </c>
+      <c r="B1513" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1513" t="n">
+        <v>1.117</v>
+      </c>
+      <c r="D1513" t="n">
+        <v>1.114</v>
+      </c>
+      <c r="E1513" t="n">
+        <v>1.119</v>
+      </c>
+      <c r="F1513" t="n">
+        <v>1.109</v>
+      </c>
+    </row>
+    <row r="1514">
+      <c r="A1514" t="inlineStr">
+        <is>
+          <t>20250418</t>
+        </is>
+      </c>
+      <c r="B1514" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1514" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="D1514" t="n">
+        <v>1.116</v>
+      </c>
+      <c r="E1514" t="n">
+        <v>1.123</v>
+      </c>
+      <c r="F1514" t="n">
+        <v>1.115</v>
+      </c>
+    </row>
+    <row r="1515">
+      <c r="A1515" t="inlineStr">
+        <is>
+          <t>20250421</t>
+        </is>
+      </c>
+      <c r="B1515" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1515" t="n">
+        <v>1.114</v>
+      </c>
+      <c r="D1515" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E1515" t="n">
+        <v>1.127</v>
+      </c>
+      <c r="F1515" t="n">
+        <v>1.113</v>
+      </c>
+    </row>
+    <row r="1516">
+      <c r="A1516" t="inlineStr">
+        <is>
+          <t>20250422</t>
+        </is>
+      </c>
+      <c r="B1516" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1516" t="n">
+        <v>1.121</v>
+      </c>
+      <c r="D1516" t="n">
+        <v>1.115</v>
+      </c>
+      <c r="E1516" t="n">
+        <v>1.122</v>
+      </c>
+      <c r="F1516" t="n">
+        <v>1.113</v>
+      </c>
+    </row>
+    <row r="1517">
+      <c r="A1517" t="inlineStr">
+        <is>
+          <t>20250423</t>
+        </is>
+      </c>
+      <c r="B1517" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1517" t="n">
+        <v>1.116</v>
+      </c>
+      <c r="D1517" t="n">
+        <v>1.122</v>
+      </c>
+      <c r="E1517" t="n">
+        <v>1.122</v>
+      </c>
+      <c r="F1517" t="n">
+        <v>1.113</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SH512890.xlsx
+++ b/data/download_SH512890.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1517"/>
+  <dimension ref="A1:F1519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36849,6 +36849,54 @@
         <v>1.113</v>
       </c>
     </row>
+    <row r="1518">
+      <c r="A1518" t="inlineStr">
+        <is>
+          <t>20250424</t>
+        </is>
+      </c>
+      <c r="B1518" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1518" t="n">
+        <v>1.126</v>
+      </c>
+      <c r="D1518" t="n">
+        <v>1.115</v>
+      </c>
+      <c r="E1518" t="n">
+        <v>1.127</v>
+      </c>
+      <c r="F1518" t="n">
+        <v>1.115</v>
+      </c>
+    </row>
+    <row r="1519">
+      <c r="A1519" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="B1519" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1519" t="n">
+        <v>1.125</v>
+      </c>
+      <c r="D1519" t="n">
+        <v>1.126</v>
+      </c>
+      <c r="E1519" t="n">
+        <v>1.128</v>
+      </c>
+      <c r="F1519" t="n">
+        <v>1.122</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SH512890.xlsx
+++ b/data/download_SH512890.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1519"/>
+  <dimension ref="A1:F1524"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36897,6 +36897,126 @@
         <v>1.122</v>
       </c>
     </row>
+    <row r="1520">
+      <c r="A1520" t="inlineStr">
+        <is>
+          <t>20250428</t>
+        </is>
+      </c>
+      <c r="B1520" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1520" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="D1520" t="n">
+        <v>1.124</v>
+      </c>
+      <c r="E1520" t="n">
+        <v>1.133</v>
+      </c>
+      <c r="F1520" t="n">
+        <v>1.123</v>
+      </c>
+    </row>
+    <row r="1521">
+      <c r="A1521" t="inlineStr">
+        <is>
+          <t>20250429</t>
+        </is>
+      </c>
+      <c r="B1521" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1521" t="n">
+        <v>1.127</v>
+      </c>
+      <c r="D1521" t="n">
+        <v>1.128</v>
+      </c>
+      <c r="E1521" t="n">
+        <v>1.133</v>
+      </c>
+      <c r="F1521" t="n">
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="1522">
+      <c r="A1522" t="inlineStr">
+        <is>
+          <t>20250430</t>
+        </is>
+      </c>
+      <c r="B1522" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1522" t="n">
+        <v>1.109</v>
+      </c>
+      <c r="D1522" t="n">
+        <v>1.126</v>
+      </c>
+      <c r="E1522" t="n">
+        <v>1.126</v>
+      </c>
+      <c r="F1522" t="n">
+        <v>1.106</v>
+      </c>
+    </row>
+    <row r="1523">
+      <c r="A1523" t="inlineStr">
+        <is>
+          <t>20250506</t>
+        </is>
+      </c>
+      <c r="B1523" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1523" t="n">
+        <v>1.109</v>
+      </c>
+      <c r="D1523" t="n">
+        <v>1.109</v>
+      </c>
+      <c r="E1523" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F1523" t="n">
+        <v>1.102</v>
+      </c>
+    </row>
+    <row r="1524">
+      <c r="A1524" t="inlineStr">
+        <is>
+          <t>20250507</t>
+        </is>
+      </c>
+      <c r="B1524" t="inlineStr">
+        <is>
+          <t>SH512890</t>
+        </is>
+      </c>
+      <c r="C1524" t="n">
+        <v>1.118</v>
+      </c>
+      <c r="D1524" t="n">
+        <v>1.113</v>
+      </c>
+      <c r="E1524" t="n">
+        <v>1.118</v>
+      </c>
+      <c r="F1524" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
